--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_12_34.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_12_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3030036.757497849</v>
+        <v>3027660.130550482</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8541127.360805277</v>
+        <v>8541127.360805275</v>
       </c>
     </row>
     <row r="11">
@@ -659,25 +659,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>22.94971336712987</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>308.5129727421036</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,19 +707,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -829,10 +829,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>56.3083098349818</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>195.2311990318297</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -905,16 +905,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.8778957178033</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>138.4227759882135</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -990,10 +990,10 @@
         <v>135.3343964518635</v>
       </c>
       <c r="H6" t="n">
-        <v>92.83156789269627</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705016</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>56.01246561959145</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>23.94563726208579</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,25 +1102,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,25 +1133,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>211.4496987473621</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>403.05395401481</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
@@ -1193,13 +1193,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705016</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1291,19 +1291,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>171.1971464172148</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>115.5971804138458</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187868</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1430,7 +1430,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.240968717412</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1528,7 +1528,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1537,16 +1537,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>21.90286287505377</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1658,7 +1658,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1765,7 +1765,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>28.75188085812005</v>
+        <v>109.0404882242259</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1774,7 +1774,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>136.5667167289874</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>126.9927435506632</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>108.9065924712593</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2375,7 +2375,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2482,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2491,10 +2491,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428212</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518788</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2719,7 +2719,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>101.696957004697</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>136.2892803597728</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187884</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,22 +2953,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>27.02919805176154</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>7.613741235232788</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695678</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3184,19 +3184,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3205,7 +3205,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>42.53134576113764</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>216.5793400412173</v>
       </c>
     </row>
     <row r="35">
@@ -3275,13 +3275,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187879</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444131</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>140.7158229532351</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3478,7 +3478,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>245.8640357413588</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3487,7 +3487,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634798</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3515,10 +3515,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H38" t="n">
-        <v>283.154082144415</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3560,7 +3560,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3667,19 +3667,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>27.02919805176154</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3895,10 +3895,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>27.24739666248491</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3907,16 +3907,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>46.13809394730835</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3949,7 +3949,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4138,19 +4138,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4195,7 +4195,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>240.06330988836</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1101.768613746537</v>
+        <v>867.5113594131255</v>
       </c>
       <c r="C2" t="n">
-        <v>732.806096806125</v>
+        <v>844.329830759459</v>
       </c>
       <c r="D2" t="n">
-        <v>374.5403981993745</v>
+        <v>844.329830759459</v>
       </c>
       <c r="E2" t="n">
-        <v>374.5403981993745</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F2" t="n">
-        <v>62.91113280331017</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
-        <v>51.2467865680031</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362822</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4346,7 +4346,7 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q2" t="n">
         <v>2542.25058172385</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>2562.339328400155</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>2231.276441056584</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1878.50778578647</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="X2" t="n">
-        <v>1878.50778578647</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="Y2" t="n">
-        <v>1488.368453810658</v>
+        <v>1254.111199477247</v>
       </c>
     </row>
     <row r="3">
@@ -4398,13 +4398,13 @@
         <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182518</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
         <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
         <v>113.5972052500113</v>
@@ -4419,16 +4419,16 @@
         <v>956.284402521753</v>
       </c>
       <c r="N3" t="n">
-        <v>1343.569531118698</v>
+        <v>1565.661695681274</v>
       </c>
       <c r="O3" t="n">
-        <v>1967.526114878148</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P3" t="n">
-        <v>2214.708848710445</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>220.18296949591</v>
+        <v>445.0465148290272</v>
       </c>
       <c r="C4" t="n">
-        <v>51.2467865680031</v>
+        <v>276.1103319011203</v>
       </c>
       <c r="D4" t="n">
-        <v>51.2467865680031</v>
+        <v>276.1103319011203</v>
       </c>
       <c r="E4" t="n">
-        <v>51.2467865680031</v>
+        <v>276.1103319011203</v>
       </c>
       <c r="F4" t="n">
-        <v>51.2467865680031</v>
+        <v>276.1103319011203</v>
       </c>
       <c r="G4" t="n">
-        <v>51.2467865680031</v>
+        <v>108.1238672093989</v>
       </c>
       <c r="H4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020475</v>
@@ -4510,28 +4510,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.23396574994</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T4" t="n">
-        <v>1140.030734404658</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U4" t="n">
-        <v>1140.030734404658</v>
+        <v>927.7205539329314</v>
       </c>
       <c r="V4" t="n">
-        <v>1140.030734404658</v>
+        <v>673.0360657270445</v>
       </c>
       <c r="W4" t="n">
-        <v>850.6135643676972</v>
+        <v>673.0360657270445</v>
       </c>
       <c r="X4" t="n">
-        <v>622.6240134696799</v>
+        <v>445.0465148290272</v>
       </c>
       <c r="Y4" t="n">
-        <v>401.8314343261497</v>
+        <v>445.0465148290272</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1201.12525314008</v>
+        <v>1267.498902304191</v>
       </c>
       <c r="C5" t="n">
-        <v>832.1627361996682</v>
+        <v>898.5363853637798</v>
       </c>
       <c r="D5" t="n">
-        <v>473.8970375929177</v>
+        <v>540.2706867570294</v>
       </c>
       <c r="E5" t="n">
-        <v>473.8970375929177</v>
+        <v>540.2706867570294</v>
       </c>
       <c r="F5" t="n">
-        <v>62.91113280331013</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G5" t="n">
-        <v>51.24678656800307</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800307</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800307</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362813</v>
+        <v>187.5281822362818</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816075</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872906</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230815</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.228484740838</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764995</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.250581723848</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400153</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400153</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400153</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U5" t="n">
-        <v>2308.927312523584</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="V5" t="n">
-        <v>1977.864425180013</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="W5" t="n">
-        <v>1977.864425180013</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="X5" t="n">
-        <v>1977.864425180013</v>
+        <v>2044.238074344125</v>
       </c>
       <c r="Y5" t="n">
-        <v>1587.725093204202</v>
+        <v>1654.098742368313</v>
       </c>
     </row>
     <row r="6">
@@ -4638,28 +4638,28 @@
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800307</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>238.427330237016</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K6" t="n">
-        <v>614.5430248380239</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L6" t="n">
-        <v>909.2465818694955</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M6" t="n">
-        <v>1272.508600828715</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
         <v>1659.79372942566</v>
       </c>
       <c r="O6" t="n">
-        <v>1991.864164601822</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
         <v>2239.046898434118</v>
@@ -4699,40 +4699,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1006.01552520271</v>
+        <v>444.7476822882288</v>
       </c>
       <c r="C7" t="n">
-        <v>837.0793422748028</v>
+        <v>275.8114993603219</v>
       </c>
       <c r="D7" t="n">
-        <v>686.962702862467</v>
+        <v>275.8114993603219</v>
       </c>
       <c r="E7" t="n">
-        <v>539.0496092800739</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="F7" t="n">
-        <v>392.1596617821635</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G7" t="n">
-        <v>224.1731970904421</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H7" t="n">
-        <v>75.43429895394831</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800307</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312189</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020474</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693231</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096583</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
@@ -4750,25 +4750,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074497</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T7" t="n">
-        <v>1636.446120074497</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U7" t="n">
-        <v>1636.446120074497</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="V7" t="n">
-        <v>1636.446120074497</v>
+        <v>962.1544032232067</v>
       </c>
       <c r="W7" t="n">
-        <v>1636.446120074497</v>
+        <v>672.7372331862462</v>
       </c>
       <c r="X7" t="n">
-        <v>1408.456569176479</v>
+        <v>444.7476822882288</v>
       </c>
       <c r="Y7" t="n">
-        <v>1187.663990032949</v>
+        <v>444.7476822882288</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1214.090290083871</v>
+        <v>1416.181083656474</v>
       </c>
       <c r="C8" t="n">
-        <v>1214.090290083871</v>
+        <v>1202.59552936621</v>
       </c>
       <c r="D8" t="n">
-        <v>855.8245914771201</v>
+        <v>844.329830759459</v>
       </c>
       <c r="E8" t="n">
-        <v>470.0363388788758</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F8" t="n">
-        <v>62.91113280331013</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800307</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800307</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800307</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362816</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816079</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872906</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923561</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230816</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.228484740839</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764995</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723848</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400153</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400153</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400153</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U8" t="n">
-        <v>2308.758267664333</v>
+        <v>2100.012626270159</v>
       </c>
       <c r="V8" t="n">
-        <v>1977.695380320762</v>
+        <v>1768.949738926588</v>
       </c>
       <c r="W8" t="n">
-        <v>1977.695380320762</v>
+        <v>1416.181083656474</v>
       </c>
       <c r="X8" t="n">
-        <v>1604.229622059682</v>
+        <v>1416.181083656474</v>
       </c>
       <c r="Y8" t="n">
-        <v>1214.090290083871</v>
+        <v>1416.181083656474</v>
       </c>
     </row>
     <row r="9">
@@ -4857,43 +4857,43 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488048</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057878</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800307</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>238.427330237016</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380235</v>
+        <v>423.1489515180662</v>
       </c>
       <c r="L9" t="n">
-        <v>909.246581869495</v>
+        <v>717.8525085495379</v>
       </c>
       <c r="M9" t="n">
-        <v>1272.508600828715</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.79372942566</v>
+        <v>1468.399656105703</v>
       </c>
       <c r="O9" t="n">
         <v>1991.864164601821</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>833.0891146802707</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="C10" t="n">
-        <v>664.1529317523638</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="D10" t="n">
-        <v>514.036292340028</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="E10" t="n">
-        <v>366.1231987576348</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F10" t="n">
-        <v>219.2332512597245</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800307</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800307</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800307</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312191</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020474</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693231</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096583</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074497</v>
+        <v>825.137147448514</v>
       </c>
       <c r="V10" t="n">
-        <v>1463.519709552058</v>
+        <v>570.4526592426272</v>
       </c>
       <c r="W10" t="n">
-        <v>1463.519709552058</v>
+        <v>453.6878305417729</v>
       </c>
       <c r="X10" t="n">
-        <v>1235.53015865404</v>
+        <v>453.6878305417729</v>
       </c>
       <c r="Y10" t="n">
-        <v>1014.73757951051</v>
+        <v>232.8952513982428</v>
       </c>
     </row>
     <row r="11">
@@ -5033,13 +5033,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
@@ -5048,10 +5048,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.422291068009</v>
@@ -5066,22 +5066,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K12" t="n">
-        <v>280.8495004245706</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>776.1751066403293</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266881</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2072.35525930079</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2495.978408795858</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5176,25 +5176,25 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>198.027470314254</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5279,16 +5279,16 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5312,10 +5312,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
         <v>3094.515198591809</v>
@@ -5355,16 +5355,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
         <v>1307.627092998424</v>
@@ -5410,16 +5410,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C16" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
         <v>484.8112968429803</v>
@@ -5476,10 +5476,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="17">
@@ -5501,7 +5501,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,13 +5510,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5525,7 +5525,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.422291068009</v>
@@ -5595,25 +5595,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M18" t="n">
-        <v>691.1951506745238</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N18" t="n">
-        <v>1318.793114229131</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O18" t="n">
-        <v>1870.702844468418</v>
+        <v>2072.35525930079</v>
       </c>
       <c r="P18" t="n">
-        <v>2294.325993963486</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>2527.587654338369</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121648</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121648</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121648</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5671,52 +5671,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5744,16 +5744,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5762,25 +5762,25 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466573</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,25 +5823,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797189</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797189</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438171</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O21" t="n">
         <v>1859.536823237711</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>653.7474797708871</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429802</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429802</v>
+        <v>766.1780053015053</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429802</v>
+        <v>618.2649117191122</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>471.3749642212018</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>304.1788649360818</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>835.3959446011269</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="23">
@@ -5966,46 +5966,46 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362693</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
         <v>4562.265728852256</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
         <v>427.7414352191925</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349513</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M24" t="n">
-        <v>1520.445529061503</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N24" t="n">
-        <v>2148.04349261611</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121648</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121648</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270447</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6200,43 +6200,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168627</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.422291068009</v>
@@ -6245,31 +6245,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468472</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349513</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2148.04349261611</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>559.0424953278208</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>559.0424953278208</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D28" t="n">
-        <v>408.925855915485</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E28" t="n">
-        <v>261.0127623330919</v>
+        <v>261.012762333092</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2242.251440075317</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2022.649975098258</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1733.574748442456</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1478.890260236569</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1189.473090199608</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>961.4835393015907</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>740.6909601580605</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6443,13 +6443,13 @@
         <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168627</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362687</v>
@@ -6458,28 +6458,28 @@
         <v>93.81666304797191</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852257</v>
@@ -6488,7 +6488,7 @@
         <v>4690.833152398595</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T29" t="n">
         <v>4405.252601474785</v>
@@ -6546,22 +6546,22 @@
         <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>776.1751066403293</v>
+        <v>923.0670414349512</v>
       </c>
       <c r="M30" t="n">
-        <v>1373.553594266881</v>
+        <v>923.0670414349512</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400717</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121648</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121648</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121648</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121648</v>
+        <v>268.7034100454483</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>101.5073107603283</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797191</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703114</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="32">
@@ -6689,37 +6689,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6783,22 +6783,22 @@
         <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349513</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M33" t="n">
-        <v>1520.445529061503</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N33" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>653.7474797708871</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="C34" t="n">
-        <v>484.8112968429802</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429802</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429802</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>835.3959446011269</v>
+        <v>697.5276345711974</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168625</v>
+        <v>793.7736536168605</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362679</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273909</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>554.5813165460164</v>
+        <v>923.4916164683283</v>
       </c>
       <c r="C37" t="n">
-        <v>385.6451336181095</v>
+        <v>754.5554335404214</v>
       </c>
       <c r="D37" t="n">
-        <v>235.5284942057738</v>
+        <v>754.5554335404214</v>
       </c>
       <c r="E37" t="n">
-        <v>235.5284942057738</v>
+        <v>606.6423399580283</v>
       </c>
       <c r="F37" t="n">
-        <v>235.5284942057738</v>
+        <v>459.7523924601179</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797191</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1729.113569660651</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1474.429081454764</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1185.011911417804</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>957.0223605197863</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y37" t="n">
-        <v>736.2297813762561</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168625</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362699</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273909</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>2074.122646505557</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121648</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121648</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7388,40 +7388,40 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362693</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192605</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7430,19 +7430,19 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
         <v>3820.749612123003</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797191</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797191</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797191</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745238</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N42" t="n">
-        <v>1318.79311422913</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O42" t="n">
-        <v>1870.702844468417</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>733.4550657171301</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="C43" t="n">
-        <v>705.9324428257312</v>
+        <v>747.3584617859342</v>
       </c>
       <c r="D43" t="n">
-        <v>555.8158034133954</v>
+        <v>597.2418223735984</v>
       </c>
       <c r="E43" t="n">
-        <v>407.9027098310023</v>
+        <v>449.3287287912053</v>
       </c>
       <c r="F43" t="n">
-        <v>261.012762333092</v>
+        <v>449.3287287912053</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797191</v>
+        <v>282.1326295060853</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797191</v>
+        <v>140.4207983482833</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7597,22 +7597,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>915.1035305473698</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="44">
@@ -7622,46 +7622,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M45" t="n">
-        <v>691.1951506745238</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N45" t="n">
-        <v>1318.79311422913</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O45" t="n">
-        <v>1870.702844468417</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P45" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7843,13 +7843,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
   </sheetData>
@@ -8067,19 +8067,19 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>224.3355197601777</v>
       </c>
       <c r="O3" t="n">
-        <v>294.834493518473</v>
+        <v>305.1601501039159</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8292,13 +8292,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>193.3273467878365</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>319.4183821282439</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8316,7 +8316,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154995</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8532,7 +8532,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>193.327346787836</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8544,7 +8544,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>193.3273467878343</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -8553,7 +8553,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154994</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9173,7 +9173,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>-2.428980868875655e-13</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -9893,7 +9893,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>1.932676241267473e-12</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -10130,7 +10130,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>1.932676241267473e-12</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10361,7 +10361,7 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23425,16 +23425,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>118.3918499711701</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>138.4949402405078</v>
+        <v>58.20633287440191</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23662,7 +23662,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>12.04875628922491</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194173</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24124,25 +24124,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>13.30196929556064</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>72.11969353038532</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24370,7 +24370,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>144.634190040853</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194174</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24607,7 +24607,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>44.73700564187214</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24619,7 +24619,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>44.73700564187183</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>132.6809716109911</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25072,19 +25072,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>138.4949402405069</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>2.00531331087754</v>
       </c>
     </row>
     <row r="35">
@@ -25309,28 +25309,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>24.80831533903373</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25366,7 +25366,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>40.32043864788537</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25555,19 +25555,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>138.4949402405073</v>
+        <v>63.36835372228751</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25783,10 +25783,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>139.9994244361429</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25795,16 +25795,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>35.12774237125718</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25837,7 +25837,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26026,19 +26026,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26083,7 +26083,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>753387.233459288</v>
+        <v>753387.2334592879</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>753387.233459288</v>
+        <v>753387.2334592879</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>733751.2673011534</v>
+        <v>733751.2673011533</v>
       </c>
     </row>
     <row r="7">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>733751.2673011534</v>
+        <v>733751.2673011535</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>733751.2673011533</v>
+        <v>733751.2673011534</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>733751.2673011534</v>
+        <v>733751.2673011533</v>
       </c>
     </row>
     <row r="15">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.5043846405</v>
+        <v>697885.5043846406</v>
       </c>
       <c r="C2" t="n">
-        <v>697885.5043846411</v>
+        <v>697885.5043846407</v>
       </c>
       <c r="D2" t="n">
-        <v>697885.5043846406</v>
+        <v>697885.5043846407</v>
       </c>
       <c r="E2" t="n">
+        <v>686074.6097365055</v>
+      </c>
+      <c r="F2" t="n">
         <v>686074.6097365054</v>
       </c>
-      <c r="F2" t="n">
-        <v>686074.6097365059</v>
-      </c>
       <c r="G2" t="n">
-        <v>686074.6097365057</v>
+        <v>686074.6097365058</v>
       </c>
       <c r="H2" t="n">
-        <v>686074.609736506</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="I2" t="n">
         <v>686074.6097365057</v>
       </c>
       <c r="J2" t="n">
-        <v>686074.6097365057</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="K2" t="n">
-        <v>686074.6097365058</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="L2" t="n">
         <v>686074.6097365057</v>
       </c>
       <c r="M2" t="n">
-        <v>686074.6097365059</v>
+        <v>686074.6097365057</v>
       </c>
       <c r="N2" t="n">
+        <v>686074.6097365058</v>
+      </c>
+      <c r="O2" t="n">
         <v>686074.6097365057</v>
       </c>
-      <c r="O2" t="n">
-        <v>686074.6097365058</v>
-      </c>
       <c r="P2" t="n">
-        <v>686074.6097365059</v>
+        <v>686074.6097365061</v>
       </c>
     </row>
     <row r="3">
@@ -26369,16 +26369,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245462</v>
+        <v>507485.4416245457</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289269</v>
+        <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26418,40 +26418,40 @@
         <v>134318.0002618638</v>
       </c>
       <c r="C4" t="n">
-        <v>134318.0002618639</v>
+        <v>134318.0002618638</v>
       </c>
       <c r="D4" t="n">
-        <v>134318.0002618638</v>
+        <v>134318.0002618637</v>
       </c>
       <c r="E4" t="n">
-        <v>8117.312426731967</v>
+        <v>8117.31242673202</v>
       </c>
       <c r="F4" t="n">
-        <v>8117.312426731958</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="G4" t="n">
-        <v>8117.312426731944</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="H4" t="n">
-        <v>8117.312426731945</v>
+        <v>8117.312426731985</v>
       </c>
       <c r="I4" t="n">
-        <v>8117.312426731933</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="J4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426731959</v>
       </c>
       <c r="K4" t="n">
-        <v>8117.312426731934</v>
+        <v>8117.31242673194</v>
       </c>
       <c r="L4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426731907</v>
       </c>
       <c r="M4" t="n">
-        <v>8117.312426731918</v>
+        <v>8117.312426732</v>
       </c>
       <c r="N4" t="n">
-        <v>8117.312426731918</v>
+        <v>8117.312426732004</v>
       </c>
       <c r="O4" t="n">
         <v>8117.312426731974</v>
@@ -26470,10 +26470,10 @@
         <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984467</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984467</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-644122.0518929875</v>
+        <v>-644122.0518929872</v>
       </c>
       <c r="C6" t="n">
-        <v>470629.7316829329</v>
+        <v>470629.7316829322</v>
       </c>
       <c r="D6" t="n">
         <v>470629.7316829321</v>
       </c>
       <c r="E6" t="n">
-        <v>69349.32586132009</v>
+        <v>69314.58793588502</v>
       </c>
       <c r="F6" t="n">
-        <v>576834.7674858669</v>
+        <v>576800.0295604308</v>
       </c>
       <c r="G6" t="n">
-        <v>576834.7674858664</v>
+        <v>576800.0295604311</v>
       </c>
       <c r="H6" t="n">
-        <v>576834.767485867</v>
+        <v>576800.0295604308</v>
       </c>
       <c r="I6" t="n">
-        <v>576834.7674858666</v>
+        <v>576800.029560431</v>
       </c>
       <c r="J6" t="n">
-        <v>409229.5896758841</v>
+        <v>409194.8517504481</v>
       </c>
       <c r="K6" t="n">
-        <v>576834.7674858667</v>
+        <v>576800.0295604308</v>
       </c>
       <c r="L6" t="n">
-        <v>576834.7674858668</v>
+        <v>576800.0295604311</v>
       </c>
       <c r="M6" t="n">
-        <v>444227.4737569399</v>
+        <v>444192.7358315041</v>
       </c>
       <c r="N6" t="n">
-        <v>576834.7674858666</v>
+        <v>576800.029560431</v>
       </c>
       <c r="O6" t="n">
-        <v>576834.7674858668</v>
+        <v>576800.029560431</v>
       </c>
       <c r="P6" t="n">
-        <v>576834.767485867</v>
+        <v>576800.0295604315</v>
       </c>
     </row>
   </sheetData>
@@ -26692,7 +26692,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>4.82703532317577e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26725,7 +26725,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>6.307326155616339e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26738,10 +26738,10 @@
         <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175388</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175389</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>640.5848321000389</v>
+      </c>
+      <c r="C4" t="n">
+        <v>640.5848321000389</v>
+      </c>
+      <c r="D4" t="n">
         <v>640.5848321000387</v>
-      </c>
-      <c r="C4" t="n">
-        <v>640.5848321000383</v>
-      </c>
-      <c r="D4" t="n">
-        <v>640.5848321000383</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26805,13 +26805,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="J4" t="n">
         <v>1172.708288099649</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1172.708288099649</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099649</v>
@@ -26820,13 +26820,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>4.82703532317577e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26963,16 +26963,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241349</v>
+        <v>433.9106082241344</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996101</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000385</v>
+        <v>640.5848321000392</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996105</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>4.82703532317577e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996101</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,25 +27379,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>342.3231784038777</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>98.36307299960782</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,19 +27427,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27549,10 +27549,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>90.94319932014707</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>25.51749696538221</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27625,16 +27625,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247055</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1673544106586746</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>231.3083246902555</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>90.42149702697773</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
-        <v>80.85095794181481</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195737</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,25 +27853,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>153.8231930236454</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>3.822091726901419</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247052</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,7 +27904,7 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27913,13 +27913,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,22 +28011,22 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195737</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>80.94049690661316</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>170.9258179227452</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28150,7 +28150,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>1.012707159510494e-12</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -28855,7 +28855,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>7.389644451905042e-13</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30280,7 +30280,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>-5.059107147259957e-14</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181058</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336176</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491898</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857141</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767378</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730001</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342221</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166591</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190642</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147049</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
         <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745093</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
         <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744846</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,34 +31355,34 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.009120711347159</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
         <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436492</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
-        <v>189.817847557584</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178437</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177241</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040585</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762069</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405672</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378623</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
         <v>256.462496416876</v>
@@ -31391,10 +31391,10 @@
         <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.318536019979</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000169</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
         <v>0.1321789941675763</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.684379313654578</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H7" t="n">
-        <v>14.97566335231071</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335768</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>195.6942511682318</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L7" t="n">
-        <v>250.4212663227906</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849626</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
         <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154671</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
-        <v>203.7180217169136</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q7" t="n">
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759582</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523477</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069558</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024981</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181058</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336177</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857141</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767378</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730002</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342222</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166592</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190643</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.501508014705</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745095</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744846</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.009120711347159</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436492</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
-        <v>189.817847557584</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178437</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177242</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040586</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>522.538811676207</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405673</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378624</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000169</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,13 +31671,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.684379313654578</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>14.97566335231071</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335769</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31686,34 +31686,34 @@
         <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227907</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849626</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
-        <v>203.7180217169136</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q10" t="n">
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759582</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523477</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069559</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024982</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31838,10 +31838,10 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>175.6052721551106</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
@@ -31850,19 +31850,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>160.6314956130963</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32075,7 +32075,7 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
@@ -32087,7 +32087,7 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>519.7862086120942</v>
+        <v>368.6279838366855</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,37 +32315,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>383.9182138639289</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>171.4104471179097</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32552,37 +32552,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>734.2678383622658</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>485.1127032082914</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32789,19 +32789,19 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>453.4978307576758</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>551.7051287319848</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32810,16 +32810,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>193.1175412796309</v>
       </c>
       <c r="O27" t="n">
-        <v>551.7051287319848</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33251,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33263,37 +33263,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>490.5075832355679</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>316.3837382263852</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33500,37 +33500,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>416.7024900153332</v>
       </c>
       <c r="O33" t="n">
-        <v>551.7051287319848</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043738</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>519.7862086120942</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>463.9598929192557</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>345.1232217852619</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34205,16 +34205,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>622.4211036182646</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34223,16 +34223,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34369,7 +34369,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L44" t="n">
         <v>867.846407116256</v>
@@ -34442,19 +34442,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>322.7581251332984</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34463,13 +34463,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34787,19 +34787,19 @@
         <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>615.5326193530516</v>
       </c>
       <c r="O3" t="n">
-        <v>630.259175514596</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="P3" t="n">
         <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225035</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407335</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067505</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457273</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376312</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949724</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637946</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402555</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939893</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K6" t="n">
-        <v>379.9148430313211</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>297.68036063785</v>
+        <v>617.098742766094</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820402</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928737</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961228</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235321</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
         <v>326.5580100667036</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870588</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
         <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831068</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468032</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
         <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295068</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
-        <v>200.9965809818071</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805397</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407336</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067505</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457275</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376313</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949725</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637947</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402555</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939896</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313262</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>379.9148430313207</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>297.68036063785</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820403</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928738</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961228</v>
+        <v>528.7520287839574</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235321</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667036</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870589</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831068</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468032</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818071</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805397</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35486,10 +35486,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>37.76383318075158</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
@@ -35498,19 +35498,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>20.64972152707474</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
@@ -35735,7 +35735,7 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>388.4444965287609</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193505</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,28 +35963,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>249.9438064495987</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>25.73094315394571</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,28 +36200,28 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402476</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>342.516458763847</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902943</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,16 +36440,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>314.9434509778017</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>409.1088842875403</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36458,7 +36458,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924747</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>61.77582919629761</v>
       </c>
       <c r="O27" t="n">
-        <v>409.1088842875403</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924747</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,25 +36914,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>351.9532034556938</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>182.409330812055</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,25 +37151,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>285.3607779319999</v>
       </c>
       <c r="O33" t="n">
-        <v>409.1088842875403</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902418</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>388.4444965287609</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>332.6181808359224</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>211.1488143709317</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37853,16 +37853,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>483.8667238383904</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,16 +37871,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38017,7 +38017,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
@@ -38090,19 +38090,19 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>180.6240912112801</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
@@ -38111,13 +38111,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
